--- a/grades.xlsx
+++ b/grades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Предмет</t>
   </si>
@@ -31,6 +31,9 @@
     <t>infoge</t>
   </si>
   <si>
+    <t>Custom_test</t>
+  </si>
+  <si>
     <t>С. Григорий</t>
   </si>
   <si>
@@ -40,13 +43,13 @@
     <t>Е. Прокашев</t>
   </si>
   <si>
-    <t>Ч. Чырык</t>
+    <t>Р. Андрей</t>
   </si>
   <si>
     <t>10 Б</t>
   </si>
   <si>
-    <t>10 Е</t>
+    <t>10И</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -449,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -466,10 +469,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -480,16 +483,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Предмет</t>
   </si>
@@ -31,9 +31,6 @@
     <t>infoge</t>
   </si>
   <si>
-    <t>Custom_test</t>
-  </si>
-  <si>
     <t>С. Григорий</t>
   </si>
   <si>
@@ -43,13 +40,10 @@
     <t>Е. Прокашев</t>
   </si>
   <si>
-    <t>Р. Андрей</t>
+    <t>А. Кузнецов</t>
   </si>
   <si>
     <t>10 Б</t>
-  </si>
-  <si>
-    <t>10И</t>
   </si>
 </sst>
 </file>
@@ -435,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -452,10 +446,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -469,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -483,16 +477,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Предмет</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>infoge</t>
+  </si>
+  <si>
+    <t>Custom_test</t>
   </si>
   <si>
     <t>С. Григорий</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,10 +432,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -446,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -463,10 +466,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -480,13 +483,30 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
